--- a/data/download/Michigan Parole Decisions, 1985-2015.xlsx
+++ b/data/download/Michigan Parole Decisions, 1985-2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EPelletier\Box Sync\09126 OSF Long Sentences\Data\Final\DOWNLOADABLE DATA FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LCourtney\Box Sync\09126 OSF Long Sentences\Website Content\Policy section\Final Excel sheets for website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>New Parole Denials</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>http://www.michigan.gov/documents/corrections/MDOC_2015_Statistical_Report_-_2016.08.23_532907_7.pdf</t>
+  </si>
+  <si>
+    <t>Michigan Department of Corrections: 2015 Statistical Report (February 24, 2017)</t>
   </si>
 </sst>
 </file>
@@ -422,23 +431,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -451,7 +460,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1985</v>
       </c>
@@ -464,7 +473,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1986</v>
       </c>
@@ -477,7 +486,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1987</v>
       </c>
@@ -490,7 +499,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1988</v>
       </c>
@@ -503,7 +512,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1989</v>
       </c>
@@ -516,7 +525,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1990</v>
       </c>
@@ -529,7 +538,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1991</v>
       </c>
@@ -542,7 +551,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1992</v>
       </c>
@@ -555,7 +564,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1993</v>
       </c>
@@ -568,7 +577,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1994</v>
       </c>
@@ -581,7 +590,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1995</v>
       </c>
@@ -594,7 +603,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1996</v>
       </c>
@@ -607,7 +616,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1997</v>
       </c>
@@ -620,7 +629,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1998</v>
       </c>
@@ -633,7 +642,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1999</v>
       </c>
@@ -646,7 +655,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2000</v>
       </c>
@@ -659,7 +668,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2001</v>
       </c>
@@ -672,7 +681,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2002</v>
       </c>
@@ -685,7 +694,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2003</v>
       </c>
@@ -698,7 +707,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2004</v>
       </c>
@@ -711,7 +720,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2005</v>
       </c>
@@ -724,7 +733,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2006</v>
       </c>
@@ -737,7 +746,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2007</v>
       </c>
@@ -750,7 +759,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2008</v>
       </c>
@@ -761,7 +770,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2009</v>
       </c>
@@ -772,7 +781,7 @@
         <v>10044</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2010</v>
       </c>
@@ -783,7 +792,7 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2011</v>
       </c>
@@ -794,7 +803,7 @@
         <v>5907</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2012</v>
       </c>
@@ -805,7 +814,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2013</v>
       </c>
@@ -816,7 +825,7 @@
         <v>5188</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2014</v>
       </c>
@@ -827,7 +836,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2015</v>
       </c>
@@ -838,7 +847,23 @@
         <v>5021</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>